--- a/R/data/MW231113_tmp.xlsx
+++ b/R/data/MW231113_tmp.xlsx
@@ -31,12 +31,47 @@
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="I222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N222">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D238">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="610">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1572,6 +1607,300 @@
   </si>
   <si>
     <t>윤상민</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>jangho5636@gmail.com</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>이장호</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>jyk9247@naver.com</t>
+  </si>
+  <si>
+    <t>정윤경</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>rio040701@naver.com</t>
+  </si>
+  <si>
+    <t>홍은혜</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>LQ</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>hyeseongi81@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜성</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>minjunkim0205@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>김민준</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>rlaalswnd5409@gmail.com</t>
+  </si>
+  <si>
+    <t>김민중</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>G49862574</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>h20221203@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권민주</t>
+  </si>
+  <si>
+    <t>ksrkatue@naver.com</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>td040802@naver.com</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>홀롤롤로</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>kimlee0411@naver.com</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>20236706@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>김가빈</t>
+  </si>
+  <si>
+    <t>namhyunwoo1004@gmail.com</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>남현우</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>ye_bang9@naver.com</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>이예빈</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
   </si>
 </sst>
 </file>
@@ -11617,6 +11946,1980 @@
         <v>19</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45249.70979079861</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45249.71051726852</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0213515E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45249.71121116898</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0161723E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45249.71202114584</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45249.71395422454</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.021221E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45249.71542527778</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0203739E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45249.71830364583</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.0192136E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45249.79247921296</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0236136E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45249.81091598379</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.023528E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45249.83565518519</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.022275E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45249.8369553588</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0224137E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45249.85187888889</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0192241E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45249.852531956014</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45249.859809629634</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.0203536E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45249.859547685184</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0235128E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45249.86117322917</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.020109E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45249.86188537037</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0224106E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45249.86273934028</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0202816E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45249.880265625005</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0221203E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45249.88289482638</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45249.88377665509</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45249.8846880787</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0235171E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45249.88542795139</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0191517E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45249.88718721065</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0232932E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45249.91830913194</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0231213E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45249.92012707176</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0232939E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45249.926240671295</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0194132E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45249.9356680787</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0232967E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45249.94168768519</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.0236204E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45249.944322916665</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0212601E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45249.95173547453</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0232314E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45249.9834266088</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0236706E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45249.98390366898</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.0202948E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45249.98545447917</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0231201E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45249.98549586805</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.0236706E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45249.98717662037</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0232105E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45249.98779293981</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0233804E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45249.989270081016</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.0223705E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O246" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45250.00947065972</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0236217E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45250.018310300926</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.0232909E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45250.07338768519</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.0232628E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45250.07352340278</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/R/data/MW231113_tmp.xlsx
+++ b/R/data/MW231113_tmp.xlsx
@@ -91,12 +91,27 @@
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C408">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C419">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C420">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="1082">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3014,7 +3029,7 @@
     <t>jjyyjj5463@gmail.com</t>
   </si>
   <si>
-    <t>이불</t>
+    <t>NE</t>
   </si>
   <si>
     <t>정예진</t>
@@ -3029,9 +3044,6 @@
     <t>serf0403@naver.com</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>정예선</t>
   </si>
   <si>
@@ -3060,6 +3072,291 @@
   </si>
   <si>
     <t>안지연</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>poiuy12240@gmail.com</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>IJ</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>dnjsgudwns0527@naver.com</t>
+  </si>
+  <si>
+    <t>원형준</t>
+  </si>
+  <si>
+    <t>thsdlstn99@naver.com</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>angelnhs@naver.com</t>
+  </si>
+  <si>
+    <t>남현수</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>orenbut22@gmail.com</t>
+  </si>
+  <si>
+    <t>IZ</t>
+  </si>
+  <si>
+    <t>윤재은</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>dbswotjq12@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IZ</t>
+  </si>
+  <si>
+    <t>윤재섭</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>kt6714@naver.com</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>강경태</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>bogus418@naver.com</t>
+  </si>
+  <si>
+    <t>강경일</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
   </si>
 </sst>
 </file>
@@ -22463,7 +22760,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2">
-        <v>45253.97065876157</v>
+        <v>45254.50878261574</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>971</v>
@@ -22563,13 +22860,13 @@
         <v>976</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D410" s="3">
         <v>2.0193646E7</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>19</v>
@@ -22607,7 +22904,7 @@
         <v>45253.98388347222</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>915</v>
@@ -22616,7 +22913,7 @@
         <v>2.0218006E7</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>18</v>
@@ -22654,16 +22951,16 @@
         <v>45253.99184740741</v>
       </c>
       <c r="B412" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="D412" s="3">
         <v>2.023629E7</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>18</v>
@@ -22701,16 +22998,16 @@
         <v>45253.99217840278</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D413" s="3">
         <v>2.0231083E7</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>18</v>
@@ -22748,7 +23045,7 @@
         <v>45254.11711600695</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>968</v>
@@ -22757,36 +23054,2104 @@
         <v>2.0231525E7</v>
       </c>
       <c r="E414" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>45254.46355900463</v>
+      </c>
+      <c r="B415" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I414" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K414" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M414" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O414" s="3" t="s">
+      <c r="C415" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2.0213955E7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>45254.46361377314</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2.0202742E7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>45254.47102752315</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2.0233417E7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M417" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>45254.471929293984</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2.0212342E7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O418" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>45254.63816494213</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2.0232821E7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M419" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N419" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O419" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>45254.657126238424</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2.0232616E7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>45254.47587234953</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2.0213014E7</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N421" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O421" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>45254.476301585644</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2.0236761E7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O422" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>45254.519464212965</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O423" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>45254.53913430555</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2.0202638E7</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O424" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>45254.5454684375</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2.0222968E7</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O425" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45254.55516459491</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0202992E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O426" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45254.56360927083</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0233941E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O427" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45254.58724586805</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0182749E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O428" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45254.58730501158</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O429" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45254.60933295139</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0236234E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O430" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45254.616724259264</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0202948E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45254.62984657407</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0232999E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45254.63091910879</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.0232999E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O433" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45254.63187725694</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.0193934E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O434" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45254.634489432865</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M435" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O435" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45254.70017196759</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0232832E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O436" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45254.69934206019</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0236263E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N437" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O437" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45254.75237428241</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0213827E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O438" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45254.752771168976</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O439" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45254.75786734954</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0233944E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O440" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45254.75869771991</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.0233814E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O441" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45254.76048427084</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.0171605E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M442" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O442" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45254.77428791666</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0233233E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O443" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45254.79654603009</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.0235202E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N444" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O444" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45254.797398483795</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.0223722E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O445" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45254.82339829861</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0236646E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O446" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45254.82381270833</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N447" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45254.82530950231</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0232338E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O448" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45254.825507002315</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.0235208E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M449" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N449" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O449" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45254.826952407406</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N450" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O450" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45254.827745092596</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O451" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45254.82948127315</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.0218001E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45254.84305619213</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.0173701E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O453" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45254.84477408565</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L454" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O454" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45254.84841798611</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.0236778E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N455" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O455" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45254.8484791088</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0215249E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M456" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O456" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45254.85115229167</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M457" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O457" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45254.8523134375</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0232508E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O458" s="3" t="s">
         <v>19</v>
       </c>
     </row>
